--- a/data/trans_bre/P24_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,27</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>67,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 11,39</t>
+          <t>-7,71; 16,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 21,26</t>
+          <t>1,02; 22,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 15,43</t>
+          <t>-2,64; 14,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 14,59</t>
+          <t>2,52; 16,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 21,76</t>
+          <t>-16,11; 21,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 55,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 151,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 77,57</t>
+          <t>-26,2; 94,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 88,35</t>
+          <t>0,97; 178,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 79,95</t>
+          <t>-9,08; 70,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 100,22</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,89; 67,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,55</t>
+          <t>24,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,5</t>
+          <t>14,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>115,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>158,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>64,34%</t>
+          <t>41,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>79,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,11; 23,91</t>
+          <t>16,82; 31,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 13,92</t>
+          <t>0,84; 16,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 13,92</t>
+          <t>3,44; 14,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 19,98</t>
+          <t>9,72; 19,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 24,38</t>
+          <t>1,42; 19,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,72; 161,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 61,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 73,9</t>
+          <t>87,59; 262,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,36; 130,8</t>
+          <t>-0,01; 75,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,62; 99,55</t>
+          <t>13,28; 78,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41,31; 119,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 85,38</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>50,56%</t>
+          <t>52,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>82,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>42,34%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 15,86</t>
+          <t>0,45; 18,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 12,61</t>
+          <t>2,62; 17,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 15,17</t>
+          <t>3,64; 16,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 19,18</t>
+          <t>8,05; 18,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 19,55</t>
+          <t>0,88; 16,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 84,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 67,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,96; 94,5</t>
+          <t>1,44; 100,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,48; 138,32</t>
+          <t>9,59; 103,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 116,31</t>
+          <t>13,71; 98,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42,14; 138,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 101,38</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,52</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>53,51%</t>
+          <t>56,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32,93%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,96</t>
+          <t>7,25; 16,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,83</t>
+          <t>-0,56; 12,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,68</t>
+          <t>3,5; 17,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 19,29</t>
+          <t>1,05; 15,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,25; 93,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,25; 61,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,67; 64,99</t>
+          <t>29,84; 90,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,65; 93,9</t>
+          <t>-2,17; 56,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,18; 77,15</t>
+          <t>15,16; 111,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,46; 70,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,42</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,57</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,16</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,82</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>44,6%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 16,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 12,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 12,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 16,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 14,43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41,54; 90,1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 56,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27,7; 65,97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47,6; 94,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 60,85</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
